--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
@@ -13,13 +13,15 @@
     <sheet name="1.変更追加画面一覧" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="0.1 共通部品xxx" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="n-n-n-n XXX画面" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="n-n-n-n XXX画面_2" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="2-1-2-1 商品一覧画面" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="2-1-2-1 商品一覧画面_2" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'0.1 共通部品xxx'!$A$1:$E$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'1.変更追加画面一覧'!$A$1:$E$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'1.変更追加画面一覧'!$A$1:$E$21</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-1 商品一覧画面'!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-1 商品一覧画面_2'!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'n-n-n-n XXX画面'!$A$1:$H$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'n-n-n-n XXX画面_2'!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">凡例!$A$1:$I$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$D$18</definedName>
   </definedNames>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -209,6 +211,30 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2-1-2-1 商品一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">画面</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ー</t>
   </si>
   <si>
@@ -234,8 +260,8 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">ボタン</t>
@@ -251,6 +277,9 @@
       <t xml:space="preserve">(submit) </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">スライダー</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,7 +418,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -410,8 +439,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -419,6 +448,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -606,40 +642,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -647,15 +683,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -667,15 +703,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,11 +723,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,67 +739,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -771,35 +807,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -815,44 +855,48 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -935,13 +979,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>257040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1409040</xdr:colOff>
+      <xdr:colOff>1408680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -955,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="739800" y="3695760"/>
-          <a:ext cx="2999520" cy="2876040"/>
+          <a:ext cx="2999160" cy="2875680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,13 +1016,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>345960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628200</xdr:colOff>
+      <xdr:colOff>627840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -988,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2676240" y="3927240"/>
-          <a:ext cx="282240" cy="276120"/>
+          <a:ext cx="281880" cy="275760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1051,13 +1095,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>260280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1067,7 +1111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743040" y="4105440"/>
-          <a:ext cx="283680" cy="285120"/>
+          <a:ext cx="283320" cy="284760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1129,14 +1173,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>252000</xdr:colOff>
+      <xdr:colOff>251640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1146,7 +1190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1063440" y="4552920"/>
-          <a:ext cx="280800" cy="266400"/>
+          <a:ext cx="280440" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1208,14 +1252,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>498600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>217440</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>785880</xdr:colOff>
+      <xdr:colOff>785520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1225,7 +1269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590840" y="4789440"/>
-          <a:ext cx="287280" cy="264960"/>
+          <a:ext cx="286920" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1297,14 +1341,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1523880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1250640</xdr:colOff>
+      <xdr:colOff>1250280</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1314,7 +1358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3854160" y="3841920"/>
-          <a:ext cx="1447920" cy="285480"/>
+          <a:ext cx="1447560" cy="285120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1380,13 +1424,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>990720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>216000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1396,7 +1440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3321000" y="4518000"/>
-          <a:ext cx="1084680" cy="320400"/>
+          <a:ext cx="1084320" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1460,14 +1504,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>917640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>220320</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1477,7 +1521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247920" y="4554360"/>
-          <a:ext cx="1012680" cy="322200"/>
+          <a:ext cx="1012320" cy="321840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1542,13 +1586,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>955800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>277920</xdr:colOff>
+      <xdr:colOff>277560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1558,7 +1602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3286080" y="4516200"/>
-          <a:ext cx="1043280" cy="306360"/>
+          <a:ext cx="1042920" cy="306000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1623,13 +1667,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1535040</xdr:colOff>
+      <xdr:colOff>1534680</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1639,7 +1683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3244680" y="4346640"/>
-          <a:ext cx="2341800" cy="729720"/>
+          <a:ext cx="2341440" cy="729360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1748,14 +1792,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123840</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>222480</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>124920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1765,7 +1809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1216080" y="6937560"/>
-          <a:ext cx="5303520" cy="2701440"/>
+          <a:ext cx="5303160" cy="2701080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2172,13 +2216,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>879480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>707760</xdr:colOff>
+      <xdr:colOff>707400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2188,7 +2232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1971720" y="2743200"/>
-          <a:ext cx="2787480" cy="301320"/>
+          <a:ext cx="2787120" cy="300960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2285,9 +2329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1699560</xdr:colOff>
+      <xdr:colOff>1699200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2301,7 +2345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171360" y="1333440"/>
-          <a:ext cx="5109480" cy="3047760"/>
+          <a:ext cx="5109120" cy="3047400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,9 +2366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>354960</xdr:colOff>
+      <xdr:colOff>354600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
+      <xdr:rowOff>196200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2334,7 +2378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="79200" y="1847880"/>
-          <a:ext cx="275760" cy="269640"/>
+          <a:ext cx="275400" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2401,9 +2445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090800</xdr:colOff>
+      <xdr:colOff>1090440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2413,7 +2457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1673280" y="2882880"/>
-          <a:ext cx="293760" cy="259920"/>
+          <a:ext cx="293400" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2480,9 +2524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090440</xdr:colOff>
+      <xdr:colOff>1090080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2492,7 +2536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1679400" y="3191040"/>
-          <a:ext cx="287280" cy="285120"/>
+          <a:ext cx="286920" cy="284760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2559,9 +2603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2571,7 +2615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2183040" y="3343320"/>
-          <a:ext cx="294840" cy="266400"/>
+          <a:ext cx="294480" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2638,7 +2682,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2650,7 +2694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3639240" y="2955600"/>
-          <a:ext cx="3277440" cy="275400"/>
+          <a:ext cx="3277080" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,7 +2766,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2734,7 +2778,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="159120" y="1096560"/>
-          <a:ext cx="603000" cy="229320"/>
+          <a:ext cx="602640" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2796,9 +2840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2812,7 +2856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3576240" y="3257640"/>
-          <a:ext cx="4078440" cy="2437920"/>
+          <a:ext cx="4078080" cy="2437560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="214560" y="3593160"/>
-          <a:ext cx="293400" cy="262080"/>
+          <a:ext cx="293040" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2912,9 +2956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2924,7 +2968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3481560" y="4298040"/>
-          <a:ext cx="293400" cy="252720"/>
+          <a:ext cx="293040" cy="252360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2990,15 +3034,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590040</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3012,7 +3056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="553680" y="910080"/>
-          <a:ext cx="2265120" cy="3642840"/>
+          <a:ext cx="2264760" cy="3642480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3026,16 +3070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>979920</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>93240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1255680</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3044,8 +3088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="2966760"/>
-          <a:ext cx="275760" cy="269640"/>
+          <a:off x="2270160" y="2958840"/>
+          <a:ext cx="360" cy="269640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3112,9 +3156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1118880</xdr:colOff>
+      <xdr:colOff>1118520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3123,8 +3167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3052800" y="2762640"/>
-          <a:ext cx="294840" cy="278640"/>
+          <a:off x="3094200" y="2755080"/>
+          <a:ext cx="294480" cy="277920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3213,7 +3257,292 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2798280" y="968040"/>
+          <a:off x="2839680" y="960480"/>
+          <a:ext cx="591120" cy="229320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2-1-2-1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="画像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="553680" y="910080"/>
+          <a:ext cx="2264760" cy="3642480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270160" y="2958840"/>
+          <a:ext cx="360" cy="269640"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1118520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3094200" y="2755080"/>
+          <a:ext cx="294480" cy="277920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1160640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2839680" y="960480"/>
           <a:ext cx="591120" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3449,8 +3778,8 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3461,7 +3790,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3526,8 +3855,8 @@
   </sheetPr>
   <dimension ref="B2:K90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3544,12 +3873,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="3" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3876,10 +4205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3936,49 +4265,60 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-    </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="49" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4000,8 +4340,8 @@
   </sheetPr>
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="B6:D6 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4021,110 +4361,110 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="51" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="27"/>
@@ -4157,53 +4497,53 @@
       <c r="E20" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="52"/>
+      <c r="B31" s="53"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4223,8 +4563,8 @@
   </sheetPr>
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="B6:D6 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4245,7 +4585,7 @@
       <c r="B2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4299,26 +4639,26 @@
       <c r="C30" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="58"/>
+      <c r="C35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="58"/>
+      <c r="C36" s="59"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="59"/>
+      <c r="C37" s="60"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4339,16 +4679,17 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="B6:D6 D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="4.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="2.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="39" width="17.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="17.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="43.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="6.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="4.75"/>
@@ -4357,11 +4698,11 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="39" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="2" s="40" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="40" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4384,38 +4725,38 @@
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="27" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="E27" s="61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="27" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="60" t="s">
         <v>51</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="28"/>
     </row>
@@ -4423,26 +4764,171 @@
       <c r="C29" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
+      <c r="D29" s="58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="58"/>
+      <c r="C34" s="59"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="58"/>
+      <c r="C35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="59"/>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.708333333333333" right="0.118055555555556" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A2:J1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="B6:D6 D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="2.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="17.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="43.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="4.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="39" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C29" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="59"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="59"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="60"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,13 +14,15 @@
     <sheet name="0.1 共通部品xxx" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="n-n-n-n XXX画面" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="2-1-2-1 商品一覧画面" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="2-1-2-1 商品一覧画面_2" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="5-1-1-2 商品一覧画面_2" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="5-2-1-2 商品一覧画面_2_2" sheetId="8" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'0.1 共通部品xxx'!$A$1:$E$22</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'1.変更追加画面一覧'!$A$1:$E$21</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-1 商品一覧画面'!$A$1:$H$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-1 商品一覧画面_2'!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'5-1-1-2 商品一覧画面_2'!$A$1:$H$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'5-2-1-2 商品一覧画面_2_2'!$A$1:$H$32</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'n-n-n-n XXX画面'!$A$1:$H$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">凡例!$A$1:$I$41</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$D$18</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -279,6 +281,57 @@
   </si>
   <si>
     <t xml:space="preserve">スライダー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">価格順・新着順 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5-1-1-2 商品一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">画面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">5-2-1-2 商品一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">画面</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -642,7 +695,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,6 +949,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,9 +1040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1408680</xdr:colOff>
+      <xdr:colOff>1408320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,7 +1056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="739800" y="3695760"/>
-          <a:ext cx="2999160" cy="2875680"/>
+          <a:ext cx="2998800" cy="2875320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,9 +1077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>627840</xdr:colOff>
+      <xdr:colOff>627480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1032,7 +1089,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2676240" y="3927240"/>
-          <a:ext cx="281880" cy="275760"/>
+          <a:ext cx="281520" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1099,9 +1156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>239040</xdr:colOff>
+      <xdr:colOff>238680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1111,7 +1168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743040" y="4105440"/>
-          <a:ext cx="283320" cy="284760"/>
+          <a:ext cx="282960" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1178,9 +1235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>251640</xdr:colOff>
+      <xdr:colOff>251280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1190,7 +1247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1063440" y="4552920"/>
-          <a:ext cx="280440" cy="266040"/>
+          <a:ext cx="280080" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1257,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>785520</xdr:colOff>
+      <xdr:colOff>785160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1269,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590840" y="4789440"/>
-          <a:ext cx="286920" cy="264600"/>
+          <a:ext cx="286560" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1346,9 +1403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1250280</xdr:colOff>
+      <xdr:colOff>1249920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1358,7 +1415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3854160" y="3841920"/>
-          <a:ext cx="1447560" cy="285120"/>
+          <a:ext cx="1447200" cy="284760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1428,9 +1485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353880</xdr:colOff>
+      <xdr:colOff>353520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1440,7 +1497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3321000" y="4518000"/>
-          <a:ext cx="1084320" cy="320040"/>
+          <a:ext cx="1083960" cy="319680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1509,9 +1566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1521,7 +1578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247920" y="4554360"/>
-          <a:ext cx="1012320" cy="321840"/>
+          <a:ext cx="1011960" cy="321480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1590,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>277200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1602,7 +1659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3286080" y="4516200"/>
-          <a:ext cx="1042920" cy="306000"/>
+          <a:ext cx="1042560" cy="305640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1671,9 +1728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1534680</xdr:colOff>
+      <xdr:colOff>1534320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1683,7 +1740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3244680" y="4346640"/>
-          <a:ext cx="2341440" cy="729360"/>
+          <a:ext cx="2341080" cy="729000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1797,9 +1854,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1809,7 +1866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1216080" y="6937560"/>
-          <a:ext cx="5303160" cy="2701080"/>
+          <a:ext cx="5302800" cy="2700720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2220,9 +2277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
+      <xdr:colOff>707040</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2232,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1971720" y="2743200"/>
-          <a:ext cx="2787120" cy="300960"/>
+          <a:ext cx="2786760" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2329,9 +2386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1699200</xdr:colOff>
+      <xdr:colOff>1698840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2345,7 +2402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171360" y="1333440"/>
-          <a:ext cx="5109120" cy="3047400"/>
+          <a:ext cx="5108760" cy="3047040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2366,9 +2423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>354600</xdr:colOff>
+      <xdr:colOff>354240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>196200</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2378,7 +2435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="79200" y="1847880"/>
-          <a:ext cx="275400" cy="269280"/>
+          <a:ext cx="275040" cy="268920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2445,9 +2502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090440</xdr:colOff>
+      <xdr:colOff>1090080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2457,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1673280" y="2882880"/>
-          <a:ext cx="293400" cy="259560"/>
+          <a:ext cx="293040" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2524,9 +2581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090080</xdr:colOff>
+      <xdr:colOff>1089720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2536,7 +2593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1679400" y="3191040"/>
-          <a:ext cx="286920" cy="284760"/>
+          <a:ext cx="286560" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2603,9 +2660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2615,7 +2672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2183040" y="3343320"/>
-          <a:ext cx="294480" cy="266040"/>
+          <a:ext cx="294120" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2682,7 +2739,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2694,7 +2751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3639240" y="2955600"/>
-          <a:ext cx="3277080" cy="275400"/>
+          <a:ext cx="3276720" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2766,7 +2823,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190080</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2778,7 +2835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="159120" y="1096560"/>
-          <a:ext cx="602640" cy="229320"/>
+          <a:ext cx="602280" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2840,9 +2897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2856,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3576240" y="3257640"/>
-          <a:ext cx="4078080" cy="2437560"/>
+          <a:ext cx="4077720" cy="2437200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2877,9 +2934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2889,7 +2946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="214560" y="3593160"/>
-          <a:ext cx="293040" cy="261720"/>
+          <a:ext cx="292680" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2956,9 +3013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>193320</xdr:colOff>
+      <xdr:colOff>192960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2968,7 +3025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3481560" y="4298040"/>
-          <a:ext cx="293040" cy="252360"/>
+          <a:ext cx="292680" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3033,16 +3090,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1973160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3055,8 +3112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="553680" y="910080"/>
-          <a:ext cx="2264760" cy="3642480"/>
+          <a:off x="0" y="1076760"/>
+          <a:ext cx="5595840" cy="2648160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3070,16 +3127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3088,8 +3145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2270160" y="2958840"/>
-          <a:ext cx="360" cy="269640"/>
+          <a:off x="393120" y="2424600"/>
+          <a:ext cx="265680" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3149,16 +3206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>824040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1118520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3167,8 +3224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3094200" y="2755080"/>
-          <a:ext cx="294480" cy="277920"/>
+          <a:off x="1511640" y="2430360"/>
+          <a:ext cx="294120" cy="277560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3241,14 +3298,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>569520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1160640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>221400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3311,70 +3368,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="画像 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="553680" y="910080"/>
-          <a:ext cx="2264760" cy="3642480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>744120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>229680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 5"/>
+        <xdr:cNvPr id="26" name="角丸四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2270160" y="2958840"/>
-          <a:ext cx="360" cy="269640"/>
+          <a:off x="1509120" y="2825640"/>
+          <a:ext cx="294120" cy="277560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3421,8 +3436,30 @@
               <a:uFillTx/>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
             <a:uFillTx/>
             <a:latin typeface="Times New Roman"/>
@@ -3432,28 +3469,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>824040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>943200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1118520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1237320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 9"/>
+        <xdr:cNvPr id="27" name="角丸四角形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3094200" y="2755080"/>
-          <a:ext cx="294480" cy="277920"/>
+          <a:off x="4565880" y="1946160"/>
+          <a:ext cx="294120" cy="277560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3500,6 +3537,202 @@
               <a:uFillTx/>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>921960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1231920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3192120" y="3167280"/>
+          <a:ext cx="309960" cy="268920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1118160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3094200" y="2755080"/>
+          <a:ext cx="294120" cy="277560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
@@ -3537,7 +3770,255 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="30" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2839680" y="960480"/>
+          <a:ext cx="591120" cy="229320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:tabLst>
+              <a:tab algn="l" pos="0"/>
+            </a:tabLst>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2-1-2-1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>921960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1231920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3192120" y="3167280"/>
+          <a:ext cx="309960" cy="268920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>824040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1118160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3094200" y="2755080"/>
+          <a:ext cx="294120" cy="277560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-CA" sz="1100" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1160640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3779,7 +4260,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3856,7 +4337,7 @@
   <dimension ref="B2:K90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B6:D6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4207,8 +4688,8 @@
   </sheetPr>
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6:D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4341,7 +4822,7 @@
   <dimension ref="A2:N38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="B6:D6 F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4564,7 +5045,7 @@
   <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="B6:D6 C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4679,8 +5160,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="B6:D6 D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4698,7 +5179,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="39" width="12.75"/>
   </cols>
   <sheetData>
-    <row r="2" s="40" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="40" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="40" t="s">
         <v>44</v>
       </c>
@@ -4762,7 +5243,7 @@
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="58" t="n">
         <v>3</v>
@@ -4776,11 +5257,17 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+        <v>5</v>
+      </c>
+      <c r="D30" s="58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="59"/>
@@ -4811,8 +5298,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="1" sqref="B6:D6 D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4832,7 +5319,7 @@
     <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -4863,55 +5350,150 @@
       <c r="C26" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>50</v>
-      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>52</v>
-      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="D29" s="58" t="n">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="63"/>
+    </row>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="59"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="59"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="60"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.708333333333333" right="0.118055555555556" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A2:J1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="2.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="39" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="39" width="17.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="39" width="43.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="4.75"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="39" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="22"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="63" t="s">
-        <v>50</v>
-      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C29" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="63"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="27" t="n">

--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(ひな形)_1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -308,6 +308,9 @@
       </rPr>
       <t xml:space="preserve">画面</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">注文トラッキング</t>
   </si>
   <si>
     <r>
@@ -695,7 +698,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -940,19 +943,55 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,9 +1079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1408320</xdr:colOff>
+      <xdr:colOff>1407600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1056,7 +1095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="739800" y="3695760"/>
-          <a:ext cx="2998800" cy="2875320"/>
+          <a:ext cx="2998080" cy="2874600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,9 +1116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>627480</xdr:colOff>
+      <xdr:colOff>626760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1089,7 +1128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2676240" y="3927240"/>
-          <a:ext cx="281520" cy="275400"/>
+          <a:ext cx="280800" cy="274680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1156,9 +1195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238680</xdr:colOff>
+      <xdr:colOff>237960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1168,7 +1207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743040" y="4105440"/>
-          <a:ext cx="282960" cy="284400"/>
+          <a:ext cx="282240" cy="283680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1235,9 +1274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1247,7 +1286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1063440" y="4552920"/>
-          <a:ext cx="280080" cy="265680"/>
+          <a:ext cx="279360" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1314,9 +1353,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
+      <xdr:colOff>784440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,7 +1365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590840" y="4789440"/>
-          <a:ext cx="286560" cy="264240"/>
+          <a:ext cx="285840" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1403,9 +1442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1249920</xdr:colOff>
+      <xdr:colOff>1249200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1415,7 +1454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3854160" y="3841920"/>
-          <a:ext cx="1447200" cy="284760"/>
+          <a:ext cx="1446480" cy="284040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1485,9 +1524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>353520</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1497,7 +1536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3321000" y="4518000"/>
-          <a:ext cx="1083960" cy="319680"/>
+          <a:ext cx="1083240" cy="318960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1566,9 +1605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>208440</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1578,7 +1617,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247920" y="4554360"/>
-          <a:ext cx="1011960" cy="321480"/>
+          <a:ext cx="1011240" cy="320760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1647,9 +1686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>277200</xdr:colOff>
+      <xdr:colOff>276480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1659,7 +1698,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3286080" y="4516200"/>
-          <a:ext cx="1042560" cy="305640"/>
+          <a:ext cx="1041840" cy="304920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1728,9 +1767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1534320</xdr:colOff>
+      <xdr:colOff>1533600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1740,7 +1779,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3244680" y="4346640"/>
-          <a:ext cx="2341080" cy="729000"/>
+          <a:ext cx="2340360" cy="728280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1854,9 +1893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1866,7 +1905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1216080" y="6937560"/>
-          <a:ext cx="5302800" cy="2700720"/>
+          <a:ext cx="5302080" cy="2700000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2277,9 +2316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>707040</xdr:colOff>
+      <xdr:colOff>706320</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2289,7 +2328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1971720" y="2743200"/>
-          <a:ext cx="2786760" cy="300600"/>
+          <a:ext cx="2786040" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2386,9 +2425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1698840</xdr:colOff>
+      <xdr:colOff>1698120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2402,7 +2441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="171360" y="1333440"/>
-          <a:ext cx="5108760" cy="3047040"/>
+          <a:ext cx="5108040" cy="3046320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2423,9 +2462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>354240</xdr:colOff>
+      <xdr:colOff>353520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>195840</xdr:rowOff>
+      <xdr:rowOff>195120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2435,7 +2474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="79200" y="1847880"/>
-          <a:ext cx="275040" cy="268920"/>
+          <a:ext cx="274320" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2502,9 +2541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1090080</xdr:colOff>
+      <xdr:colOff>1089360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2514,7 +2553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1673280" y="2882880"/>
-          <a:ext cx="293040" cy="259200"/>
+          <a:ext cx="292320" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2581,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1089720</xdr:colOff>
+      <xdr:colOff>1089000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2593,7 +2632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1679400" y="3191040"/>
-          <a:ext cx="286560" cy="284400"/>
+          <a:ext cx="285840" cy="283680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2660,9 +2699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2672,7 +2711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2183040" y="3343320"/>
-          <a:ext cx="294120" cy="265680"/>
+          <a:ext cx="293400" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2739,7 +2778,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2751,7 +2790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3639240" y="2955600"/>
-          <a:ext cx="3276720" cy="275400"/>
+          <a:ext cx="3276000" cy="275400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2823,7 +2862,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
@@ -2835,7 +2874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="159120" y="1096560"/>
-          <a:ext cx="602280" cy="229320"/>
+          <a:ext cx="601560" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2897,9 +2936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2913,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3576240" y="3257640"/>
-          <a:ext cx="4077720" cy="2437200"/>
+          <a:ext cx="4077000" cy="2436480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2934,9 +2973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2946,7 +2985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="214560" y="3593160"/>
-          <a:ext cx="292680" cy="261360"/>
+          <a:ext cx="291960" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3013,9 +3052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>192960</xdr:colOff>
+      <xdr:colOff>192240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3025,7 +3064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3481560" y="4298040"/>
-          <a:ext cx="292680" cy="252000"/>
+          <a:ext cx="291960" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3097,9 +3136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1973160</xdr:colOff>
+      <xdr:colOff>1972440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3113,7 +3152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1076760"/>
-          <a:ext cx="5595840" cy="2648160"/>
+          <a:ext cx="5595120" cy="2647440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3134,9 +3173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114120</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3146,7 +3185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="393120" y="2424600"/>
-          <a:ext cx="265680" cy="269280"/>
+          <a:ext cx="264960" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3213,9 +3252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3225,7 +3264,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1511640" y="2430360"/>
-          <a:ext cx="294120" cy="277560"/>
+          <a:ext cx="293400" cy="276840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3377,9 +3416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>744120</xdr:colOff>
+      <xdr:colOff>743400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>229680</xdr:rowOff>
+      <xdr:rowOff>228960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3389,7 +3428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1509120" y="2825640"/>
-          <a:ext cx="294120" cy="277560"/>
+          <a:ext cx="293400" cy="276840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3478,9 +3517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1237320</xdr:colOff>
+      <xdr:colOff>1236600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3490,7 +3529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4565880" y="1946160"/>
-          <a:ext cx="294120" cy="277560"/>
+          <a:ext cx="293400" cy="276840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3589,15 +3628,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>921960</xdr:colOff>
+      <xdr:colOff>921240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1231920</xdr:colOff>
+      <xdr:colOff>1230480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3606,8 +3645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3192120" y="3167280"/>
-          <a:ext cx="309960" cy="268920"/>
+          <a:off x="3191400" y="3167280"/>
+          <a:ext cx="309240" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3670,13 +3709,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>824040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1118160</xdr:colOff>
+      <xdr:colOff>1117440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3686,7 +3725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3094200" y="2755080"/>
-          <a:ext cx="294120" cy="277560"/>
+          <a:ext cx="293400" cy="276840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3759,14 +3798,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>569520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1160640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>221400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3837,15 +3876,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>921960</xdr:colOff>
+      <xdr:colOff>921240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1231920</xdr:colOff>
+      <xdr:colOff>1230480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3854,8 +3893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3192120" y="3167280"/>
-          <a:ext cx="309960" cy="268920"/>
+          <a:off x="3191400" y="3167280"/>
+          <a:ext cx="309240" cy="268200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3918,13 +3957,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>824040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1118160</xdr:colOff>
+      <xdr:colOff>1117440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3934,7 +3973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3094200" y="2755080"/>
-          <a:ext cx="294120" cy="277560"/>
+          <a:ext cx="293400" cy="276840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4007,14 +4046,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>569520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>230400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1160640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228960</xdr:rowOff>
+      <xdr:rowOff>221400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5160,8 +5199,8 @@
   </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5216,16 +5255,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="27" t="n">
+      <c r="C27" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="64" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5236,36 +5275,36 @@
       <c r="D28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="65" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="27" t="n">
+      <c r="C29" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="58" t="n">
+      <c r="D29" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="68" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="27" t="n">
+      <c r="C30" s="66" t="n">
         <v>5</v>
       </c>
-      <c r="D30" s="58" t="n">
+      <c r="D30" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="68" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5298,8 +5337,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5316,7 +5355,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="22"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>55</v>
@@ -5347,27 +5386,29 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="27" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="28"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="27" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="61"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5376,7 +5417,7 @@
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="63"/>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="27" t="n">
@@ -5415,8 +5456,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5433,10 +5474,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="22"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -5464,27 +5505,29 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="27" t="n">
+      <c r="C26" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="70" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="27" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="28"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="27" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="61"/>
+      <c r="E28" s="65"/>
       <c r="F28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5493,7 +5536,7 @@
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="63"/>
+      <c r="F29" s="73"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="27" t="n">
